--- a/Data/Jarkko Siikava MM-Kisaveikkaus 2022.xlsx
+++ b/Data/Jarkko Siikava MM-Kisaveikkaus 2022.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Saudi-Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Kylian Mbabbe</t>
+    <t xml:space="preserve">Kylian Mbappe</t>
   </si>
   <si>
     <t xml:space="preserve">Ranska</t>
@@ -634,7 +634,7 @@
       <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.63"/>
@@ -646,9 +646,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2327,7 +2327,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2350,7 +2350,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
